--- a/biology/Zoologie/Conure_des_cactus/Conure_des_cactus.xlsx
+++ b/biology/Zoologie/Conure_des_cactus/Conure_des_cactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupsittula cactorum
 La Conure des cactus (Eupsittula cactorum, anciennement Aratinga cactorum) est une espèce d'oiseaux de taille plutôt modeste (environ 25 cm).
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure des cactus est déplacée vers le genre Eupsittula.
 </t>
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mario D. &amp; Conzo G. (2004), Le grand livre des perroquets, de Vecchi, Paris, 287 p.</t>
         </is>
